--- a/exceldata/excelepractice.xlsx
+++ b/exceldata/excelepractice.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t xml:space="preserve">abcd</t>
   </si>
@@ -28,13 +28,16 @@
     <t xml:space="preserve">xffg</t>
   </si>
   <si>
-    <t xml:space="preserve">dfff</t>
+    <t xml:space="preserve">edede</t>
   </si>
   <si>
-    <t xml:space="preserve">fvfgv</t>
+    <t xml:space="preserve">deceeed</t>
   </si>
   <si>
     <t xml:space="preserve">fvfvf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ed3d3</t>
   </si>
 </sst>
 </file>
@@ -49,6 +52,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -130,15 +134,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -171,6 +175,16 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exceldata/excelepractice.xlsx
+++ b/exceldata/excelepractice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">abcd</t>
   </si>
@@ -28,16 +28,16 @@
     <t xml:space="preserve">xffg</t>
   </si>
   <si>
-    <t xml:space="preserve">edede</t>
+    <t xml:space="preserve">dfff</t>
   </si>
   <si>
-    <t xml:space="preserve">deceeed</t>
+    <t xml:space="preserve">fvfgv</t>
   </si>
   <si>
     <t xml:space="preserve">fvfvf</t>
   </si>
   <si>
-    <t xml:space="preserve">ed3d3</t>
+    <t xml:space="preserve">veena</t>
   </si>
 </sst>
 </file>
@@ -134,10 +134,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -172,16 +172,6 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
         <v>5</v>
       </c>
     </row>

--- a/exceldata/excelepractice.xlsx
+++ b/exceldata/excelepractice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">abcd</t>
   </si>
@@ -37,7 +37,10 @@
     <t xml:space="preserve">fvfvf</t>
   </si>
   <si>
-    <t xml:space="preserve">veena</t>
+    <t xml:space="preserve">veena1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pradeep</t>
   </si>
 </sst>
 </file>
@@ -134,16 +137,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -175,6 +175,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
